--- a/backend_tests/z_input_files/v2/06_upscale_almeria.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="202">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -155,7 +155,10 @@
     <t xml:space="preserve">Attributes</t>
   </si>
   <si>
-    <t xml:space="preserve">Location</t>
+    <t xml:space="preserve">GeoLocationRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeoLocationCode</t>
   </si>
   <si>
     <t xml:space="preserve">GH</t>
@@ -845,19 +848,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -963,12 +966,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1048,7 +1051,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,8 +1178,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1186,10 +1189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1199,14 +1202,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="32.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="32.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,362 +1264,360 @@
         <v>42</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1624,9 +1627,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1642,28 +1645,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>41</v>
@@ -1671,341 +1674,245 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="6"/>
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2034,115 +1941,115 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="45.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="45.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="V1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="8" t="s">
+      <c r="X1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Y1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="Z1" s="6" t="s">
         <v>130</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA2" s="0" t="n">
         <v>2010</v>
@@ -2150,47 +2057,47 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA5" s="0" t="n">
         <v>2013</v>
@@ -2198,16 +2105,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA6" s="0" t="n">
         <v>2008</v>
@@ -2215,16 +2122,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA7" s="0" t="n">
         <v>2015</v>
@@ -2235,8 +2142,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2258,42 +2165,42 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>156</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2301,8 +2208,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2312,10 +2219,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2329,18 +2236,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="1.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="1.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="2.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,40 +2256,40 @@
         <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>168</v>
@@ -2407,1851 +2315,1896 @@
       <c r="U1" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8" t="n">
+        <v>338.297333333333</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="6" t="n">
-        <v>338.297333333333</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" s="0" t="n">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="0" t="s">
+      <c r="T3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="n">
+        <v>2289</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="0" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="6" t="n">
-        <v>2289</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="0" t="s">
+      <c r="T4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="6" t="n">
-        <v>36.99</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R5" s="0" t="n">
+    <row r="7" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8" t="n">
+        <v>128.436666666667</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S7" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="6" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="6" t="n">
-        <v>128.436666666667</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="0" t="s">
-        <v>178</v>
+      <c r="T7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="7" t="n">
+        <v>98</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9" t="n">
         <f aca="false">4*700</f>
         <v>2800</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="M8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8" t="n">
+        <v>72768</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8" t="n">
+        <v>3947</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="0"/>
+    </row>
+    <row r="12" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8" t="n">
+        <v>312.969411764706</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="U12" s="7"/>
+      <c r="V12" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8" t="n">
+        <v>441</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8" t="n">
+        <v>102.324</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U14" s="7"/>
+      <c r="V14" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8" t="n">
+        <v>341.08</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8" t="n">
+        <v>61.3788235294118</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U16" s="7"/>
+      <c r="V16" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R8" s="0" t="n">
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="0"/>
+    </row>
+    <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="9" t="n">
+        <v>25282</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="9" t="n">
+        <v>3213</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="0"/>
+    </row>
+    <row r="21" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8" t="n">
+        <v>118.733333333333</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="9" t="n">
+        <v>643.708116157856</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8" t="n">
+        <v>8.75000000000001</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8" t="n">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U24" s="7"/>
+      <c r="V24" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="V25" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S26" s="0"/>
+      <c r="T26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="0"/>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="9" t="n">
+        <v>9100</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U27" s="7"/>
+      <c r="V27" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="9" t="n">
+        <v>641.288160833954</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S28" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="6" t="n">
-        <v>72768</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R9" s="0" t="n">
+      <c r="T28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="0"/>
+    </row>
+    <row r="30" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8" t="n">
+        <v>268.658823529412</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="6" t="n">
-        <v>3947</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="0"/>
-    </row>
-    <row r="12" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="0" t="s">
+      <c r="T30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8" t="n">
+        <v>1932</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="6" t="n">
-        <v>312.969411764706</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R12" s="0" t="n">
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S32" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="0" t="s">
+      <c r="T32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8" t="n">
+        <v>271.858823529412</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="0" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="6" t="n">
-        <v>441</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>2008</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="6" t="n">
-        <v>102.324</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R14" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="6" t="n">
-        <v>341.08</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R15" s="0" t="n">
+      <c r="T33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U33" s="7"/>
+      <c r="V33" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8" t="n">
+        <v>135.558823529412</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S34" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="6" t="n">
-        <v>61.3788235294118</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="0" t="s">
+      <c r="T34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U34" s="7"/>
+      <c r="V34" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="0"/>
-    </row>
-    <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="7" t="n">
-        <v>25282</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="7" t="n">
-        <v>3213</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="0"/>
-    </row>
-    <row r="21" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="6" t="n">
-        <v>118.733333333333</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="7" t="n">
-        <v>643.708116157856</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="6" t="n">
-        <v>8.75000000000001</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="6" t="n">
-        <v>29.1666666666667</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="6" t="n">
-        <v>26.65</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R25" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T25" s="9"/>
-      <c r="U25" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R26" s="0"/>
-      <c r="S26" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T26" s="9"/>
-      <c r="U26" s="0"/>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="7" t="n">
-        <v>9100</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T27" s="9"/>
-      <c r="U27" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="7" t="n">
-        <v>641.288160833954</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="0"/>
-    </row>
-    <row r="30" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="6" t="n">
-        <v>268.658823529412</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R30" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T30" s="9"/>
-      <c r="U30" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="6" t="n">
-        <v>1932</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="T31" s="9"/>
-      <c r="U31" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="6" t="n">
-        <v>36.99</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="6" t="n">
-        <v>271.858823529412</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R33" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T33" s="9"/>
-      <c r="U33" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="6" t="n">
-        <v>135.558823529412</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T34" s="9"/>
-      <c r="U34" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="7" t="n">
+      <c r="D35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="9" t="n">
         <f aca="false">4*700</f>
         <v>2800</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R35" s="0" t="n">
+      <c r="M35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S35" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S35" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T35" s="9"/>
-      <c r="U35" s="0" t="s">
-        <v>196</v>
+      <c r="T35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U35" s="7"/>
+      <c r="V35" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="6" t="n">
+      <c r="D36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8" t="n">
         <v>83575</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="M36" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U37" s="7"/>
+      <c r="V37" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="0"/>
+    </row>
+    <row r="39" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="0"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="0"/>
+    </row>
+    <row r="40" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="U40" s="7"/>
+      <c r="V40" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R36" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="S36" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R37" s="0" t="n">
+      <c r="D41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S41" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S37" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T37" s="9"/>
-      <c r="U37" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="0"/>
-    </row>
-    <row r="39" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="0"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="0"/>
-      <c r="R39" s="0"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="0"/>
-    </row>
-    <row r="40" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R40" s="0" t="n">
+      <c r="T41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U41" s="7"/>
+      <c r="V41" s="0"/>
+    </row>
+    <row r="42" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="0"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="0"/>
+    </row>
+    <row r="43" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S43" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="S40" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="T40" s="9"/>
-      <c r="U40" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="S41" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T41" s="9"/>
-      <c r="U41" s="0"/>
-    </row>
-    <row r="42" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="0"/>
-      <c r="L42" s="0"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="0"/>
-      <c r="R42" s="0"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="0"/>
-    </row>
-    <row r="43" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R43" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="S43" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="T43" s="9"/>
-      <c r="U43" s="0" t="s">
-        <v>198</v>
+      <c r="T43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="U43" s="7"/>
+      <c r="V43" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="K44" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="L44" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="L44" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q44" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R44" s="0" t="n">
+      <c r="M44" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S44" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S44" s="0" t="s">
-        <v>140</v>
+      <c r="T44" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>68</v>
+        <v>104</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="K46" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="L46" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="L46" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q46" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R46" s="0" t="n">
+      <c r="M46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S46" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="S46" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="U46" s="0" t="s">
-        <v>198</v>
+      <c r="T46" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="K47" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="L47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L47" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q47" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R47" s="0" t="n">
+      <c r="M47" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="S47" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="S47" s="0" t="s">
-        <v>140</v>
+      <c r="T47" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K49" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="L49" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="L49" s="0" t="s">
-        <v>104</v>
+      <c r="M49" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K50" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="L50" s="0" t="n">
         <v>28609</v>
       </c>
-      <c r="L50" s="0" t="s">
-        <v>104</v>
+      <c r="M50" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K51" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="L51" s="0" t="n">
         <v>12073</v>
       </c>
-      <c r="L51" s="0" t="s">
-        <v>104</v>
+      <c r="M51" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K52" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="L52" s="0" t="n">
         <v>10160</v>
       </c>
-      <c r="L52" s="0" t="s">
-        <v>104</v>
+      <c r="M52" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K53" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="L53" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="L53" s="0" t="s">
-        <v>104</v>
+      <c r="M53" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="K54" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="L54" s="0" t="n">
         <v>384</v>
       </c>
-      <c r="L54" s="0" t="s">
-        <v>104</v>
+      <c r="M54" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4259,8 +4212,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4283,7 +4236,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,33 +4261,33 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="15" t="n">
         <v>0.151660472365424</v>
@@ -4348,7 +4301,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="18" t="n">
         <v>0</v>
@@ -4362,7 +4315,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="18" t="n">
         <v>0</v>
@@ -4376,7 +4329,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="21" t="n">
         <v>0</v>
@@ -4405,8 +4358,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4443,33 +4396,33 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="15" t="n">
         <v>0</v>
@@ -4483,7 +4436,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>0.15</v>
@@ -4497,7 +4450,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="29" t="n">
         <v>0.19</v>
@@ -4511,7 +4464,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="29" t="n">
         <v>0.03</v>
@@ -4525,7 +4478,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="29" t="n">
         <v>0</v>
@@ -4539,7 +4492,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>0</v>
@@ -4559,8 +4512,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/backend_tests/z_input_files/v2/06_upscale_almeria.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="201">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -206,135 +206,135 @@
     <t xml:space="preserve">Crop=”Green_bean”, ProdSystem=”OF”</t>
   </si>
   <si>
+    <t xml:space="preserve">GH_Cucumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop=”Cucumber”, ProdSystem=”GH”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broccoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OF_Broccoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH_MCR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH_MCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OF_MCR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgrarianRegion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InterfaceTypeHierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InterfaceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoegenType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParentInterfaceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrigation_Eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TechnoSphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_req</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_req</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_req</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesticides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CropTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CropProduct</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cucumber</t>
   </si>
   <si>
-    <t xml:space="preserve">GH_Cucumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crop=”Cucumber”, ProdSystem=”GH”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broccoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OF_Broccoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH_MCR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH_MCR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OF_MCR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgrarianRegion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InterfaceTypeHierarchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InterfaceType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoegenType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParentInterfaceType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irrigation_Eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TechnoSphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K_req</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N_load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N_req</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P_req</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesticides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CropTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CropProduct</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water_requirements</t>
   </si>
   <si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t xml:space="preserve">Calculated with ad hoc software for Poniente Almeriense 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARG2010</t>
   </si>
   <si>
     <t xml:space="preserve">UTAs average of important irrigation communities in Alto and Bajo Almanzora (0.2 - 0.4)</t>
@@ -1191,13 +1188,13 @@
   </sheetPr>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.49"/>
@@ -1358,14 +1355,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>47</v>
@@ -1383,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,10 +1382,10 @@
         <v>53</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>47</v>
@@ -1418,13 +1409,13 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>48</v>
@@ -1444,13 +1435,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>48</v>
@@ -1470,13 +1461,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>48</v>
@@ -1493,13 +1484,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>49</v>
@@ -1508,18 +1499,18 @@
         <v>50</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>49</v>
@@ -1528,18 +1519,18 @@
         <v>50</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>49</v>
@@ -1548,18 +1539,18 @@
         <v>50</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>49</v>
@@ -1568,18 +1559,18 @@
         <v>50</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>49</v>
@@ -1588,18 +1579,18 @@
         <v>50</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>49</v>
@@ -1608,7 +1599,7 @@
         <v>50</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1645,28 +1636,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>41</v>
@@ -1674,208 +1665,208 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,10 +1874,10 @@
         <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>103</v>
@@ -1897,10 +1888,10 @@
         <v>104</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>105</v>
@@ -1925,7 +1916,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1942,13 +1933,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="45.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="45.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2221,34 +2212,35 @@
   </sheetPr>
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="2.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="71.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,16 +2251,16 @@
         <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>164</v>
@@ -2289,7 +2281,7 @@
         <v>167</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>168</v>
@@ -2353,7 +2345,7 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>46</v>
@@ -2371,7 +2363,7 @@
         <v>338.297333333333</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -2395,7 +2387,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>46</v>
@@ -2413,7 +2405,7 @@
         <v>2289</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -2437,7 +2429,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>46</v>
@@ -2455,7 +2447,7 @@
         <v>36.99</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -2479,7 +2471,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>46</v>
@@ -2497,7 +2489,7 @@
         <v>369.9</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -2521,7 +2513,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>46</v>
@@ -2539,7 +2531,7 @@
         <v>128.436666666667</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -2563,7 +2555,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>46</v>
@@ -2582,7 +2574,7 @@
         <v>2800</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2624,7 +2616,7 @@
         <v>72768</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2695,7 +2687,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2722,10 +2714,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2740,7 +2732,7 @@
         <v>312.969411764706</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2753,7 +2745,7 @@
         <v>2013</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="0" t="s">
@@ -2764,10 +2756,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2782,7 +2774,7 @@
         <v>441</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -2799,17 +2791,17 @@
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -2824,7 +2816,7 @@
         <v>102.324</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -2841,17 +2833,17 @@
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2866,7 +2858,7 @@
         <v>341.08</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2890,10 +2882,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2908,7 +2900,7 @@
         <v>61.3788235294118</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2932,10 +2924,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -2950,7 +2942,7 @@
         <v>1000</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2972,10 +2964,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2990,7 +2982,7 @@
         <v>25282</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3017,7 +3009,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -3044,14 +3036,14 @@
         <v>178</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3080,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>57</v>
@@ -3106,7 +3098,7 @@
         <v>118.733333333333</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3130,7 +3122,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>57</v>
@@ -3148,7 +3140,7 @@
         <v>643.708116157856</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3165,14 +3157,14 @@
       </c>
       <c r="U22" s="7"/>
       <c r="V22" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>57</v>
@@ -3190,7 +3182,7 @@
         <v>8.75000000000001</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -3207,14 +3199,14 @@
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>57</v>
@@ -3232,7 +3224,7 @@
         <v>29.1666666666667</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -3256,7 +3248,7 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>57</v>
@@ -3274,7 +3266,7 @@
         <v>26.65</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -3298,7 +3290,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>57</v>
@@ -3316,7 +3308,7 @@
         <v>1000</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -3354,7 +3346,7 @@
         <v>9100</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -3415,7 +3407,7 @@
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,7 +3417,7 @@
         <v>104</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -3452,10 +3444,10 @@
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -3470,7 +3462,7 @@
         <v>268.658823529412</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -3487,17 +3479,17 @@
       </c>
       <c r="U30" s="7"/>
       <c r="V30" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -3512,7 +3504,7 @@
         <v>1932</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -3529,17 +3521,17 @@
       </c>
       <c r="U31" s="7"/>
       <c r="V31" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -3554,7 +3546,7 @@
         <v>36.99</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -3578,10 +3570,10 @@
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -3596,7 +3588,7 @@
         <v>271.858823529412</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -3613,17 +3605,17 @@
       </c>
       <c r="U33" s="7"/>
       <c r="V33" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -3638,7 +3630,7 @@
         <v>135.558823529412</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -3655,17 +3647,17 @@
       </c>
       <c r="U34" s="7"/>
       <c r="V34" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -3681,7 +3673,7 @@
         <v>2800</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -3698,17 +3690,17 @@
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -3723,7 +3715,7 @@
         <v>83575</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -3740,7 +3732,7 @@
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,7 +3742,7 @@
         <v>102</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -3784,7 +3776,7 @@
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,7 +3810,7 @@
         <v>104</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -3845,10 +3837,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -3880,17 +3872,17 @@
       </c>
       <c r="U40" s="7"/>
       <c r="V40" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -3905,7 +3897,7 @@
         <v>2500</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -3930,7 +3922,7 @@
         <v>104</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -3957,10 +3949,10 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -3992,15 +3984,15 @@
       </c>
       <c r="U43" s="7"/>
       <c r="V43" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>177</v>
@@ -4009,7 +4001,7 @@
         <v>2500</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R44" s="0" t="s">
         <v>178</v>
@@ -4026,7 +4018,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>177</v>
@@ -4034,10 +4026,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>177</v>
@@ -4058,15 +4050,15 @@
         <v>151</v>
       </c>
       <c r="V46" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>177</v>
@@ -4075,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R47" s="0" t="s">
         <v>178</v>
@@ -4092,7 +4084,7 @@
         <v>104</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>177</v>
@@ -4112,7 +4104,7 @@
         <v>104</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>177</v>
@@ -4132,7 +4124,7 @@
         <v>104</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>177</v>
@@ -4152,7 +4144,7 @@
         <v>104</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>177</v>
@@ -4172,7 +4164,7 @@
         <v>104</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>177</v>
@@ -4192,7 +4184,7 @@
         <v>104</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>177</v>
@@ -4273,16 +4265,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,7 +4293,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="18" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C9" s="18" t="n">
         <v>0</v>
@@ -4329,7 +4321,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="21" t="n">
         <v>0</v>
@@ -4408,21 +4400,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="15" t="n">
         <v>0</v>
@@ -4436,7 +4428,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>0.15</v>
@@ -4450,7 +4442,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="29" t="n">
         <v>0.19</v>
@@ -4464,7 +4456,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="29" t="n">
         <v>0.03</v>
@@ -4478,7 +4470,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="29" t="n">
         <v>0</v>
@@ -4492,7 +4484,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>0</v>

--- a/backend_tests/z_input_files/v2/06_upscale_almeria.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="201">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -1188,7 +1188,7 @@
   </sheetPr>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2212,8 +2212,8 @@
   </sheetPr>
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R40" activeCellId="0" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3861,9 +3861,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="R40" s="0"/>
       <c r="S40" s="0" t="n">
         <v>2015</v>
       </c>
@@ -3973,9 +3971,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="R43" s="0"/>
       <c r="S43" s="0" t="n">
         <v>2015</v>
       </c>
@@ -4039,9 +4035,6 @@
       </c>
       <c r="M46" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="S46" s="0" t="n">
         <v>2015</v>

--- a/backend_tests/z_input_files/v2/06_upscale_almeria.xlsx
+++ b/backend_tests/z_input_files/v2/06_upscale_almeria.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="201">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -2212,8 +2212,8 @@
   </sheetPr>
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R40" activeCellId="0" sqref="R40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S54" activeCellId="0" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3317,7 +3317,9 @@
       <c r="R26" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="S26" s="0"/>
+      <c r="S26" s="0" t="s">
+        <v>131</v>
+      </c>
       <c r="T26" s="7" t="s">
         <v>158</v>
       </c>
@@ -4091,6 +4093,9 @@
       <c r="M49" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="S49" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
@@ -4111,6 +4116,9 @@
       <c r="M50" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="S50" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
@@ -4131,6 +4139,9 @@
       <c r="M51" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="S51" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
@@ -4151,6 +4162,9 @@
       <c r="M52" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="S52" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
@@ -4171,6 +4185,9 @@
       <c r="M53" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="S53" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
@@ -4190,6 +4207,9 @@
       </c>
       <c r="M54" s="0" t="s">
         <v>105</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
